--- a/OriginTable/InitailizeDeck.xlsx
+++ b/OriginTable/InitailizeDeck.xlsx
@@ -7,21 +7,25 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InitializeDeck" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>CardID</t>
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>卡牌ID</t>
+  </si>
+  <si>
+    <t>卡牌数量</t>
   </si>
   <si>
     <t>int</t>
@@ -980,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -996,35 +1000,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
@@ -1033,38 +1045,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/InitailizeDeck.xlsx
+++ b/OriginTable/InitailizeDeck.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>

--- a/OriginTable/InitailizeDeck.xlsx
+++ b/OriginTable/InitailizeDeck.xlsx
@@ -987,7 +987,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
